--- a/Jobs_3.xlsx
+++ b/Jobs_3.xlsx
@@ -55,10 +55,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="0">
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
+    <border>
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <top style="none">
+        <color rgb="FFC7C7C7"/>
+      </top>
       <bottom style="none">
         <color rgb="FFC7C7C7"/>
       </bottom>
@@ -98,10 +101,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -141,7 +144,7 @@
         <v>J1</v>
       </c>
       <c r="B2" s="2">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -157,7 +160,7 @@
       </c>
       <c r="G2">
         <f>RANDBETWEEN(460,500)</f>
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -165,7 +168,7 @@
         <v>J2</v>
       </c>
       <c r="B3" s="2">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -181,7 +184,7 @@
       </c>
       <c r="G3">
         <f>RANDBETWEEN(460,500)</f>
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -189,7 +192,7 @@
         <v>J3</v>
       </c>
       <c r="B4" s="2">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -205,7 +208,7 @@
       </c>
       <c r="G4">
         <f>1440-SUM(G2:G3)</f>
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -213,7 +216,7 @@
         <v>J4</v>
       </c>
       <c r="B5" s="2">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -229,7 +232,7 @@
       </c>
       <c r="G5">
         <f>RANDBETWEEN(460,500)</f>
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -237,7 +240,7 @@
         <v>J5</v>
       </c>
       <c r="B6" s="2">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -253,7 +256,7 @@
       </c>
       <c r="G6">
         <f>RANDBETWEEN(460,500)</f>
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -261,7 +264,7 @@
         <v>J6</v>
       </c>
       <c r="B7" s="2">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -277,7 +280,7 @@
       </c>
       <c r="G7">
         <f>1440-SUM(G5:G6)</f>
-        <v>512</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -285,7 +288,7 @@
         <v>J7</v>
       </c>
       <c r="B8" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -301,7 +304,7 @@
       </c>
       <c r="G8">
         <f>RANDBETWEEN(460,500)</f>
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -309,7 +312,7 @@
         <v>J8</v>
       </c>
       <c r="B9" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -325,7 +328,7 @@
       </c>
       <c r="G9">
         <f>RANDBETWEEN(460,500)</f>
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -333,7 +336,7 @@
         <v>J9</v>
       </c>
       <c r="B10" s="2">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -348,8 +351,8 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>470</v>
+        <f>1440-SUM(G8:G9)</f>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -357,7 +360,7 @@
         <v>J10</v>
       </c>
       <c r="B11" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -373,7 +376,7 @@
       </c>
       <c r="G11">
         <f>RANDBETWEEN(460,500)</f>
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -381,7 +384,7 @@
         <v>J11</v>
       </c>
       <c r="B12" s="2">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -397,7 +400,7 @@
       </c>
       <c r="G12">
         <f>RANDBETWEEN(460,500)</f>
-        <v>462</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -405,7 +408,7 @@
         <v>J12</v>
       </c>
       <c r="B13" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -420,8 +423,8 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>484</v>
+        <f>1440-SUM(G11:G12)</f>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -429,7 +432,7 @@
         <v>J13</v>
       </c>
       <c r="B14" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -444,8 +447,8 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <f>1440-SUM(G12:G13)</f>
-        <v>494</v>
+        <f>RANDBETWEEN(460,500)</f>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -453,7 +456,7 @@
         <v>J14</v>
       </c>
       <c r="B15" s="2">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -469,7 +472,7 @@
       </c>
       <c r="G15">
         <f>RANDBETWEEN(460,500)</f>
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -477,7 +480,7 @@
         <v>J15</v>
       </c>
       <c r="B16" s="2">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -492,8 +495,8 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>464</v>
+        <f>1440-SUM(G14:G15)</f>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -501,7 +504,7 @@
         <v>J16</v>
       </c>
       <c r="B17" s="2">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -516,8 +519,8 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>1440-SUM(G15:G16)</f>
-        <v>480</v>
+        <f>RANDBETWEEN(460,500)</f>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -525,7 +528,7 @@
         <v>J17</v>
       </c>
       <c r="B18" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -541,7 +544,7 @@
       </c>
       <c r="G18">
         <f>RANDBETWEEN(460,500)</f>
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -549,7 +552,7 @@
         <v>J18</v>
       </c>
       <c r="B19" s="2">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -564,393 +567,19 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>490</v>
-      </c>
+        <f>1440-SUM(G17:G18)</f>
+        <v>465</v>
+      </c>
+      <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="str">
-        <v>J19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>483</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>350</v>
-      </c>
-      <c r="E20">
-        <v>500</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f>1440-SUM(G18:G19)</f>
-        <v>483</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="str">
-        <v>J20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>475</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>350</v>
-      </c>
-      <c r="E21">
-        <v>500</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>475</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="str">
-        <v>J21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>475</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>350</v>
-      </c>
-      <c r="E22">
-        <v>500</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="str">
-        <v>J22</v>
-      </c>
-      <c r="B23">
-        <v>490</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>350</v>
-      </c>
-      <c r="E23">
-        <v>500</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <f>1440-SUM(G21:G22)</f>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="str">
-        <v>J23</v>
-      </c>
-      <c r="B24">
-        <v>466</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>350</v>
-      </c>
-      <c r="E24">
-        <v>500</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="str">
-        <v>J24</v>
-      </c>
-      <c r="B25">
-        <v>465</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>350</v>
-      </c>
-      <c r="E25">
-        <v>500</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="str">
-        <v>J25</v>
-      </c>
-      <c r="B26">
-        <v>509</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>350</v>
-      </c>
-      <c r="E26">
-        <v>500</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <f>1440-SUM(G24:G25)</f>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="str">
-        <v>J26</v>
-      </c>
-      <c r="B27">
-        <v>495</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>350</v>
-      </c>
-      <c r="E27">
-        <v>500</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="str">
-        <v>J27</v>
-      </c>
-      <c r="B28">
-        <v>483</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>350</v>
-      </c>
-      <c r="E28">
-        <v>500</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="str">
-        <v>J28</v>
-      </c>
-      <c r="B29">
-        <v>462</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>350</v>
-      </c>
-      <c r="E29">
-        <v>500</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f>1440-SUM(G27:G28)</f>
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="str">
-        <v>J29</v>
-      </c>
-      <c r="B30">
-        <v>469</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>350</v>
-      </c>
-      <c r="E30">
-        <v>500</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="str">
-        <v>J30</v>
-      </c>
-      <c r="B31">
-        <v>472</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>350</v>
-      </c>
-      <c r="E31">
-        <v>500</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="str">
-        <v>J31</v>
-      </c>
-      <c r="B32">
-        <v>499</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>350</v>
-      </c>
-      <c r="E32">
-        <v>500</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>1440-SUM(G30:G31)</f>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="str">
-        <v>J32</v>
-      </c>
-      <c r="B33">
-        <v>463</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>350</v>
-      </c>
-      <c r="E33">
-        <v>500</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="str">
-        <v>J33</v>
-      </c>
-      <c r="B34">
-        <v>496</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>350</v>
-      </c>
-      <c r="E34">
-        <v>500</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f>RANDBETWEEN(460,500)</f>
-        <v>496</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="str">
-        <v>J34</v>
-      </c>
-      <c r="B35">
-        <v>481</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>350</v>
-      </c>
-      <c r="E35">
-        <v>500</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <f>1440-SUM(G33:G34)</f>
-        <v>481</v>
-      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
